--- a/SCIA_INSTITUCIONES.xlsx
+++ b/SCIA_INSTITUCIONES.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbugueno\Desktop\BBDD_DEGE\Colaboracion_Institucional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalconicyt-my.sharepoint.com/personal/carenas_anid_cl/Documents/Escritorio/Github ANID/Colaboracion_Institucional/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_717211C6E78BA29A9BC5CF60FE9BEDEB3DF826EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98CF1D26-563D-4236-BFF9-A56B52CC2874}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIA_INSTITUCIONES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$925</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$1237</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12367" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12677" uniqueCount="1089">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -3205,12 +3219,96 @@
   </si>
   <si>
     <t>MAROUN KHOURY</t>
+  </si>
+  <si>
+    <t>CONCURSO APOYO CENTROS DE EXCELENCIA CON FINANCIAMIENTO BASAL 2022</t>
+  </si>
+  <si>
+    <t>AFB220001</t>
+  </si>
+  <si>
+    <t>AFB220002</t>
+  </si>
+  <si>
+    <t>AFB220003</t>
+  </si>
+  <si>
+    <t>AFB220004</t>
+  </si>
+  <si>
+    <t>1522A0001</t>
+  </si>
+  <si>
+    <t>RENE GARREAUD SALAZAR</t>
+  </si>
+  <si>
+    <t>1522A0002</t>
+  </si>
+  <si>
+    <t>WALDO BUSTAMANTE GOMEZ</t>
+  </si>
+  <si>
+    <t>1522A0003</t>
+  </si>
+  <si>
+    <t>PEDRO MEGE ROSSO</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD ACADEMIA DE HUMANISMO CRISTIANO</t>
+  </si>
+  <si>
+    <t>71470400-1</t>
+  </si>
+  <si>
+    <t>1522A0004</t>
+  </si>
+  <si>
+    <t>RENATO QUIÑONES BERGERET</t>
+  </si>
+  <si>
+    <t>1522A0005</t>
+  </si>
+  <si>
+    <t>RODRIGO CIENFUEGOS CARRASCO</t>
+  </si>
+  <si>
+    <t>1522A0006</t>
+  </si>
+  <si>
+    <t>CLAUDIA RAHMANN ZUÑIGA</t>
+  </si>
+  <si>
+    <t>CONCURSO DE APOYO A CENTROS DE EXCELENCIA EN INVESTIGACION EN AREAS PRIORITARIAS - FONDAP 2022</t>
+  </si>
+  <si>
+    <t>APOYO AL FORTALECIMIENTO A LAS CAPACIDADES PARA I+D 2022 MODALIDAD CENTROS TECNOLOGICOS PARA LA INNOVACION Y CENTROS DE EXCELENCIA INTERNACIONAL</t>
+  </si>
+  <si>
+    <t>CTI220001</t>
+  </si>
+  <si>
+    <t>MAY CHOMALI GARIB</t>
+  </si>
+  <si>
+    <t>CENTRO</t>
+  </si>
+  <si>
+    <t>CENTRO NACIONAL DE SISTEMAS DE                    INFORMACION EN SALUD</t>
+  </si>
+  <si>
+    <t>65165006-2</t>
+  </si>
+  <si>
+    <t>CTI220002</t>
+  </si>
+  <si>
+    <t>NAYAT SANCHEZ PI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4010,12 +4108,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L1268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1186" sqref="F1186"/>
+      <pane ySplit="1" topLeftCell="A1245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1269" sqref="A1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51026,6 +51124,1184 @@
         <v>853</v>
       </c>
     </row>
+    <row r="1238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1238">
+        <v>2022</v>
+      </c>
+      <c r="E1238">
+        <v>2022</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1238" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1238" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1238" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1239">
+        <v>2022</v>
+      </c>
+      <c r="E1239">
+        <v>2022</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1239" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1239" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1239" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D1240">
+        <v>2022</v>
+      </c>
+      <c r="E1240">
+        <v>2022</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>744</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1240" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1240" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1240" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D1241">
+        <v>2022</v>
+      </c>
+      <c r="E1241">
+        <v>2022</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>643</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1241" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1241" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1241" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D1242">
+        <v>2022</v>
+      </c>
+      <c r="E1242">
+        <v>2022</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>414</v>
+      </c>
+      <c r="J1242" t="s">
+        <v>415</v>
+      </c>
+      <c r="K1242" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1242" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D1243">
+        <v>2022</v>
+      </c>
+      <c r="E1243">
+        <v>2022</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>747</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1243" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1243" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1243" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1244">
+        <v>2022</v>
+      </c>
+      <c r="E1244">
+        <v>2022</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1244" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1244" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1244" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1245">
+        <v>2022</v>
+      </c>
+      <c r="E1245">
+        <v>2022</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1245" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1245" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1245" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D1246">
+        <v>2022</v>
+      </c>
+      <c r="E1246">
+        <v>2022</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1246" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1246" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1246" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1247">
+        <v>2022</v>
+      </c>
+      <c r="E1247">
+        <v>2022</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1247" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1247" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D1248">
+        <v>2022</v>
+      </c>
+      <c r="E1248">
+        <v>2022</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1248" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1248" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1249">
+        <v>2022</v>
+      </c>
+      <c r="E1249">
+        <v>2022</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>275</v>
+      </c>
+      <c r="K1249" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1249" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1250">
+        <v>2022</v>
+      </c>
+      <c r="E1250">
+        <v>2022</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>1072</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1250" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D1251">
+        <v>2022</v>
+      </c>
+      <c r="E1251">
+        <v>2022</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1251" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1251" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1251" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1252">
+        <v>2022</v>
+      </c>
+      <c r="E1252">
+        <v>2022</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1252" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1252" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1252" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1253">
+        <v>2022</v>
+      </c>
+      <c r="E1253">
+        <v>2022</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1253" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1253" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1253" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D1254">
+        <v>2022</v>
+      </c>
+      <c r="E1254">
+        <v>2022</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1254" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1254" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1254" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1255">
+        <v>2022</v>
+      </c>
+      <c r="E1255">
+        <v>2022</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1255" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1255" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1255" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1256">
+        <v>2022</v>
+      </c>
+      <c r="E1256">
+        <v>2022</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1256" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1256" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1256" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1257">
+        <v>2022</v>
+      </c>
+      <c r="E1257">
+        <v>2022</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1257" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1257" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1257" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1258">
+        <v>2022</v>
+      </c>
+      <c r="E1258">
+        <v>2022</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>781</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1258" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1258" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1258" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1259">
+        <v>2022</v>
+      </c>
+      <c r="E1259">
+        <v>2022</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>786</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1259" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1259" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1259" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1260">
+        <v>2022</v>
+      </c>
+      <c r="E1260">
+        <v>2022</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1260" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1260" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1260" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1261">
+        <v>2022</v>
+      </c>
+      <c r="E1261">
+        <v>2022</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1261" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1261" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1261" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1262">
+        <v>2022</v>
+      </c>
+      <c r="E1262">
+        <v>2022</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1262" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1262" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1262" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1263">
+        <v>2022</v>
+      </c>
+      <c r="E1263">
+        <v>2022</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>444</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1263" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1264">
+        <v>2022</v>
+      </c>
+      <c r="E1264">
+        <v>2022</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1264" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1265">
+        <v>2022</v>
+      </c>
+      <c r="E1265">
+        <v>2022</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1265" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1266">
+        <v>2022</v>
+      </c>
+      <c r="E1266">
+        <v>2022</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>784</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1266" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D1267">
+        <v>2022</v>
+      </c>
+      <c r="E1267">
+        <v>2022</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>1085</v>
+      </c>
+      <c r="J1267" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K1267" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1267" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>488</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1268">
+        <v>2022</v>
+      </c>
+      <c r="E1268">
+        <v>2022</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>1084</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J1268" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1268" t="s">
+        <v>857</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SCIA_INSTITUCIONES.xlsx
+++ b/SCIA_INSTITUCIONES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalconicyt-my.sharepoint.com/personal/carenas_anid_cl/Documents/Escritorio/Github ANID/Colaboracion_Institucional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243B1BCB-82D8-4F2D-9ABC-37DBBB003422}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71157B4-E874-4A0C-A549-4F7EA0BABDD8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SCIA_INSTITUCIONES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$1456</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$1457</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14557" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14567" uniqueCount="1285">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -3879,6 +3879,18 @@
   </si>
   <si>
     <t>87674400-7</t>
+  </si>
+  <si>
+    <t>CONCURSO NACIONAL DE ASIGNACIÓN DE TIEMPO DE BUQUE OCEANOGRÁFICO AGS 61 CABO DE HORNOS 2023</t>
+  </si>
+  <si>
+    <t>AUB2300001</t>
+  </si>
+  <si>
+    <t>INSTITUCIÓN BENEFICIARIA</t>
+  </si>
+  <si>
+    <t>REGIÓN DE LOS RÍOS</t>
   </si>
 </sst>
 </file>
@@ -4368,8 +4380,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4691,11 +4704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1456"/>
+  <dimension ref="A1:L1457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:L555"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60028,8 +60041,46 @@
         <v>852</v>
       </c>
     </row>
+    <row r="1457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D1457" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1457" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>739</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1457" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1457" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1457" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1457" t="s">
+        <v>1284</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1456" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L1457" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1456">
       <sortCondition ref="D1:D1456"/>
     </sortState>

--- a/SCIA_INSTITUCIONES.xlsx
+++ b/SCIA_INSTITUCIONES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="49" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71157B4-E874-4A0C-A549-4F7EA0BABDD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIA_INSTITUCIONES" sheetId="1" r:id="rId1"/>
@@ -4380,9 +4380,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4708,7 +4707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60051,10 +60050,10 @@
       <c r="C1457" t="s">
         <v>1282</v>
       </c>
-      <c r="D1457" s="1">
+      <c r="D1457">
         <v>2023</v>
       </c>
-      <c r="E1457" s="1">
+      <c r="E1457">
         <v>2023</v>
       </c>
       <c r="F1457" t="s">

--- a/SCIA_INSTITUCIONES.xlsx
+++ b/SCIA_INSTITUCIONES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalconicyt.sharepoint.com/sites/DEGE204/Documentos compartidos/General/.DEGE/ESTUDIOS/SOLICITUDES/2024/ITREND/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalconicyt-my.sharepoint.com/personal/carenas_anid_cl/Documents/Escritorio/Github ANID/Colaboracion_Institucional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA8BA84-3E92-4A3A-89AC-199B7299A962}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D74703-9077-4087-90B1-65881EFF856A}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SCIA_INSTITUCIONES" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$1633</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SCIA_INSTITUCIONES!$A$1:$L$1647</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16678" uniqueCount="1424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16818" uniqueCount="1435">
   <si>
     <t>PROGRAMA</t>
   </si>
@@ -4308,6 +4308,39 @@
   </si>
   <si>
     <t>MARIO NUÑEZ DECAP</t>
+  </si>
+  <si>
+    <t>MILENIO</t>
+  </si>
+  <si>
+    <t>APOYO A INSTITUTOS MILENIO EN CIENCIAS NATURALES Y EXACTAS E INSTITUTOS MILENIO EN CIENCIAS SOCIALES 2023</t>
+  </si>
+  <si>
+    <t>AIM23-0001</t>
+  </si>
+  <si>
+    <t>FRANCISCO FÖRSTER BURÓN</t>
+  </si>
+  <si>
+    <t>INSTITUCIÓN ALBERGANTE</t>
+  </si>
+  <si>
+    <t>AIM23-0002</t>
+  </si>
+  <si>
+    <t>JUAN JIMÉNEZ DE LA JARA</t>
+  </si>
+  <si>
+    <t>AIM23-0003</t>
+  </si>
+  <si>
+    <t>OSVALDO ULLOA QUIJADA</t>
+  </si>
+  <si>
+    <t>AIM23-0004</t>
+  </si>
+  <si>
+    <t>JUAN ESCOBAR</t>
   </si>
 </sst>
 </file>
@@ -5128,16 +5161,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1633"/>
+  <dimension ref="A1:L1647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1633" sqref="H2:L1633"/>
+      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1516" sqref="F1516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="107.28515625" style="1" customWidth="1"/>
+    <col min="3" max="13" width="11.42578125" style="1"/>
     <col min="14" max="14" width="99" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -67193,8 +67228,540 @@
         <v>847</v>
       </c>
     </row>
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1634" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1634" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1634" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1634" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1634" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G1634" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1634" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1634" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1634" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1634" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1634" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1635" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1635" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1635" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1635" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1635" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G1635" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1635" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1635" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1635" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1635" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1635" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1636" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1636" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1636" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1636" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1636" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G1636" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1636" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1636" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1636" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1636" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1636" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1637" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1637" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1637" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1637" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1637" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G1637" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1637" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1637" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1637" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1637" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1637" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1638" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1638" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D1638" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1638" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1638" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G1638" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1638" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1638" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1638" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1638" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1638" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1639" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1639" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1639" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1639" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1639" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1639" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1639" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1639" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1639" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1639" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1639" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1640" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1640" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1640" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1640" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1640" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1640" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1640" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1640" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1640" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1640" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1640" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1641" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1641" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1641" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1641" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1641" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1641" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1641" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1641" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1641" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1641" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1641" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1642" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1642" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1642" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1642" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1642" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1642" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1642" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1642" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1642" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="K1642" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1642" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1643" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1643" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1643" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1643" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1643" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1643" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1643" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1643" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1643" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1643" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1643" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1644" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1644" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1644" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D1644" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1644" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1644" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G1644" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1644" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1644" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1644" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1644" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1644" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1645" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1645" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1645" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1645" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1645" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1645" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1645" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1645" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1645" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1645" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1645" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1646" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1646" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1646" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D1646" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1646" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1646" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G1646" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1646" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1646" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1646" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1646" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1646" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1647" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1647" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1647" s="1">
+        <v>2023</v>
+      </c>
+      <c r="E1647" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F1647" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="G1647" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="H1647" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="I1647" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1647" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1647" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1647" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1633" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L1647" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L1633">
       <sortCondition descending="1" ref="L1:L1633"/>
     </sortState>
@@ -67205,15 +67772,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C88A7FCAE285054B97CB570734C365BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c62806c8b4f0493a6f72e6fb16b99b00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acfd04d7-df52-4447-8bf4-f8f6f766c6b2" xmlns:ns3="ca4cc7d6-f4f8-45fd-b76c-ea8f432683d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5aed4c1ec91c0d0e30dc8dfde2b8a5e" ns2:_="" ns3:_="">
     <xsd:import namespace="acfd04d7-df52-4447-8bf4-f8f6f766c6b2"/>
@@ -67448,15 +68006,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70149098-277F-43D5-92A7-D467E1008350}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C31924-4E99-4F70-BFD7-53F8D44C72DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -67473,4 +68032,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70149098-277F-43D5-92A7-D467E1008350}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCIA_INSTITUCIONES.xlsx
+++ b/SCIA_INSTITUCIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://portalconicyt-my.sharepoint.com/personal/carenas_anid_cl/Documents/Escritorio/Github ANID/Colaboracion_Institucional/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D74703-9077-4087-90B1-65881EFF856A}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="14_{A602DA21-BB6C-4B76-9159-C3590472A81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{606730C7-C063-44A7-8459-EB446609B07B}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49170" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCIA_INSTITUCIONES" sheetId="1" r:id="rId1"/>
@@ -5164,8 +5164,8 @@
   <dimension ref="A1:L1647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1516" sqref="F1516"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67772,6 +67772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C88A7FCAE285054B97CB570734C365BB" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c62806c8b4f0493a6f72e6fb16b99b00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acfd04d7-df52-4447-8bf4-f8f6f766c6b2" xmlns:ns3="ca4cc7d6-f4f8-45fd-b76c-ea8f432683d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a5aed4c1ec91c0d0e30dc8dfde2b8a5e" ns2:_="" ns3:_="">
     <xsd:import namespace="acfd04d7-df52-4447-8bf4-f8f6f766c6b2"/>
@@ -68006,16 +68015,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70149098-277F-43D5-92A7-D467E1008350}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5C31924-4E99-4F70-BFD7-53F8D44C72DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68032,12 +68040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70149098-277F-43D5-92A7-D467E1008350}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>